--- a/src/main/webapp/assets/exceltpl/workregionm.xlsx
+++ b/src/main/webapp/assets/exceltpl/workregionm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="18517" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="workregionm" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,22 @@
     <t>产线档案</t>
   </si>
   <si>
-    <t>产线编码</t>
+    <t>*产线编码</t>
   </si>
   <si>
-    <t>产线名称</t>
+    <t>*产线名称</t>
   </si>
   <si>
-    <t>所属部门</t>
+    <t>*所属部门</t>
   </si>
   <si>
     <t>产线长</t>
   </si>
   <si>
-    <t>排产层级</t>
+    <t>*排产层级</t>
   </si>
   <si>
-    <t>关联仓库名称</t>
+    <t>*关联仓库名称</t>
   </si>
   <si>
     <t>备注</t>
@@ -1009,16 +1009,16 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.8141592920354" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="18.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="17.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="16.2727272727273" customWidth="1"/>
+    <col min="1" max="2" width="18.5486725663717" customWidth="1"/>
+    <col min="3" max="3" width="17.3628318584071" customWidth="1"/>
+    <col min="4" max="4" width="20.8141592920354" customWidth="1"/>
+    <col min="5" max="5" width="17.3628318584071" customWidth="1"/>
+    <col min="6" max="6" width="16.2743362831858" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
